--- a/output/inventory.xlsx
+++ b/output/inventory.xlsx
@@ -457,14 +457,14 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Дата: 2024-12-17</t>
+          <t>Дата: 2024-12-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Время: 07:49:34</t>
+          <t>Время: 06:47:38</t>
         </is>
       </c>
     </row>

--- a/output/inventory.xlsx
+++ b/output/inventory.xlsx
@@ -457,14 +457,14 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Дата: 2024-12-21</t>
+          <t>Дата: 2024-12-26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Время: 06:47:38</t>
+          <t>Время: 09:45:12</t>
         </is>
       </c>
     </row>
